--- a/scripts/the-open.xlsx
+++ b/scripts/the-open.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16780" tabRatio="868" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="460" windowWidth="19140" windowHeight="16780" tabRatio="868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="218">
   <si>
     <t>Tier A</t>
   </si>
@@ -638,6 +638,72 @@
   <si>
     <t>Yusaku Miyazato</t>
   </si>
+  <si>
+    <t>Kevin Donoher</t>
+  </si>
+  <si>
+    <t>Phil Mickleson</t>
+  </si>
+  <si>
+    <t>Danny Willet</t>
+  </si>
+  <si>
+    <t>Kyle Bivenour</t>
+  </si>
+  <si>
+    <t>Matt Kilianski</t>
+  </si>
+  <si>
+    <t>Nate Heckmann</t>
+  </si>
+  <si>
+    <t>Ryan Boudouris</t>
+  </si>
+  <si>
+    <t>Sean Buckle</t>
+  </si>
+  <si>
+    <t>Ryan Romes</t>
+  </si>
+  <si>
+    <t>Peter Uilhein</t>
+  </si>
+  <si>
+    <t>Tyrell Hatton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Garcia        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Mickelson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Johnson    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Woodland   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Scott  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooks Koepka   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesco Molinari  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory McIlroy           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Day           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Kaymer      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Smith       </t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +713,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +799,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -891,13 +994,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,18 +1115,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +1133,58 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="38">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
@@ -3319,50 +3493,50 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -3401,7 +3575,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3416,30 +3590,30 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="51" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
@@ -3478,7 +3652,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3493,30 +3667,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="51" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="51" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="49"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
@@ -3555,7 +3729,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3570,30 +3744,30 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="51" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="49"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3806,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3769,6 +3943,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -3781,13 +3962,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3797,25 +3971,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>191</v>
       </c>
@@ -3826,58 +4002,70 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>191</v>
       </c>
@@ -3888,48 +4076,507 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C48" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
